--- a/Dataset Excel Sheets/Frames/frames for P2.xlsx
+++ b/Dataset Excel Sheets/Frames/frames for P2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaher.salman\Desktop\LINA JAN 24\Senior II\Senior-Design-Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/080c280c8b6910c1/Desktop/AUS/4. Senior Year/Spring 2024/Senior Design II/Senior-Design-Code/Dataset Excel Sheets/Frames/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_6B6583EAB09DA8D592D5CE2524B43BE0226DF04F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41AC8DA5-D040-4973-BF14-658A2D23786A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7640"/>
+    <workbookView xWindow="372" yWindow="24" windowWidth="21732" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>count</t>
   </si>
@@ -50,12 +51,24 @@
   <si>
     <t>5: [147, 196]</t>
   </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>No overlap between 2 &amp; 3</t>
+  </si>
+  <si>
+    <t>No overlap between 3 &amp; 4</t>
+  </si>
+  <si>
+    <t>Small overlap between 4 &amp; 5 (23 frames)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +91,14 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -239,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -274,6 +295,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,19 +600,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L960"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N960"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <v>2</v>
       </c>
@@ -601,7 +627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -627,11 +653,14 @@
       <c r="J2" s="5">
         <v>5</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N2" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>41</v>
       </c>
@@ -659,11 +688,14 @@
       <c r="J3" s="7">
         <v>420</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N3" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>67</v>
       </c>
@@ -691,11 +723,14 @@
       <c r="J4" s="7">
         <v>171.952381</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N4" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>59</v>
       </c>
@@ -723,11 +758,14 @@
       <c r="J5" s="7">
         <v>34.026209000000001</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N5" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>61</v>
       </c>
@@ -755,11 +793,11 @@
       <c r="J6" s="7">
         <v>107</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>49</v>
       </c>
@@ -788,7 +826,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>56</v>
       </c>
@@ -817,7 +855,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>58</v>
       </c>
@@ -846,7 +884,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>54</v>
       </c>
@@ -875,7 +913,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>56</v>
       </c>
@@ -889,7 +927,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>70</v>
       </c>
@@ -903,7 +941,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>56</v>
       </c>
@@ -917,7 +955,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>57</v>
       </c>
@@ -931,7 +969,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>54</v>
       </c>
@@ -945,7 +983,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>46</v>
       </c>
@@ -959,7 +997,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>56</v>
       </c>
@@ -973,7 +1011,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>42</v>
       </c>
@@ -987,7 +1025,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>44</v>
       </c>
@@ -1001,7 +1039,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>45</v>
       </c>
@@ -1015,7 +1053,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>44</v>
       </c>
@@ -1029,7 +1067,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>42</v>
       </c>
@@ -1043,7 +1081,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>46</v>
       </c>
@@ -1057,7 +1095,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>48</v>
       </c>
@@ -1071,7 +1109,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>45</v>
       </c>
@@ -1085,7 +1123,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>87</v>
       </c>
@@ -1099,7 +1137,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>102</v>
       </c>
@@ -1113,7 +1151,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>101</v>
       </c>
@@ -1127,7 +1165,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>93</v>
       </c>
@@ -1141,7 +1179,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>101</v>
       </c>
@@ -1155,7 +1193,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>96</v>
       </c>
@@ -1169,7 +1207,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>94</v>
       </c>
@@ -1183,7 +1221,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>94</v>
       </c>
@@ -1197,7 +1235,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>91</v>
       </c>
@@ -1211,7 +1249,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>77</v>
       </c>
@@ -1225,7 +1263,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>90</v>
       </c>
@@ -1239,7 +1277,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>99</v>
       </c>
@@ -1253,7 +1291,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>84</v>
       </c>
@@ -1267,7 +1305,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>82</v>
       </c>
@@ -1281,7 +1319,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>83</v>
       </c>
@@ -1295,7 +1333,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>74</v>
       </c>
@@ -1309,7 +1347,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>63</v>
       </c>
@@ -1323,7 +1361,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>76</v>
       </c>
@@ -1337,7 +1375,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>81</v>
       </c>
@@ -1351,7 +1389,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>78</v>
       </c>
@@ -1365,7 +1403,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>79</v>
       </c>
@@ -1379,7 +1417,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>78</v>
       </c>
@@ -1393,7 +1431,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>79</v>
       </c>
@@ -1407,7 +1445,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>82</v>
       </c>
@@ -1421,7 +1459,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>82</v>
       </c>
@@ -1435,7 +1473,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>84</v>
       </c>
@@ -1449,7 +1487,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>86</v>
       </c>
@@ -1463,7 +1501,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>76</v>
       </c>
@@ -1477,7 +1515,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>74</v>
       </c>
@@ -1491,7 +1529,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>74</v>
       </c>
@@ -1505,7 +1543,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>66</v>
       </c>
@@ -1519,7 +1557,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>75</v>
       </c>
@@ -1533,7 +1571,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>71</v>
       </c>
@@ -1547,7 +1585,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>78</v>
       </c>
@@ -1561,7 +1599,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>73</v>
       </c>
@@ -1575,7 +1613,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>75</v>
       </c>
@@ -1589,7 +1627,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>69</v>
       </c>
@@ -1603,7 +1641,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>72</v>
       </c>
@@ -1617,7 +1655,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>72</v>
       </c>
@@ -1631,7 +1669,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>65</v>
       </c>
@@ -1645,7 +1683,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1659,7 +1697,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>64</v>
       </c>
@@ -1673,7 +1711,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>63</v>
       </c>
@@ -1687,7 +1725,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>70</v>
       </c>
@@ -1701,7 +1739,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>71</v>
       </c>
@@ -1715,7 +1753,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>67</v>
       </c>
@@ -1729,7 +1767,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>62</v>
       </c>
@@ -1743,7 +1781,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>68</v>
       </c>
@@ -1757,7 +1795,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>69</v>
       </c>
@@ -1771,7 +1809,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>66</v>
       </c>
@@ -1785,7 +1823,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>61</v>
       </c>
@@ -1799,7 +1837,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>61</v>
       </c>
@@ -1813,7 +1851,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>111</v>
       </c>
@@ -1827,7 +1865,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>106</v>
       </c>
@@ -1841,7 +1879,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>101</v>
       </c>
@@ -1855,7 +1893,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>126</v>
       </c>
@@ -1869,7 +1907,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>128</v>
       </c>
@@ -1883,7 +1921,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>129</v>
       </c>
@@ -1897,7 +1935,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>129</v>
       </c>
@@ -1911,7 +1949,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>111</v>
       </c>
@@ -1925,7 +1963,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>119</v>
       </c>
@@ -1939,7 +1977,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>111</v>
       </c>
@@ -1953,7 +1991,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>114</v>
       </c>
@@ -1967,7 +2005,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>121</v>
       </c>
@@ -1981,7 +2019,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>92</v>
       </c>
@@ -1995,7 +2033,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>85</v>
       </c>
@@ -2009,7 +2047,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>84</v>
       </c>
@@ -2023,7 +2061,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2037,7 +2075,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>90</v>
       </c>
@@ -2051,7 +2089,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>78</v>
       </c>
@@ -2065,7 +2103,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>89</v>
       </c>
@@ -2079,7 +2117,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>87</v>
       </c>
@@ -2093,7 +2131,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>107</v>
       </c>
@@ -2107,7 +2145,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>87</v>
       </c>
@@ -2121,7 +2159,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>84</v>
       </c>
@@ -2135,7 +2173,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>86</v>
       </c>
@@ -2149,7 +2187,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>120</v>
       </c>
@@ -2163,7 +2201,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>133</v>
       </c>
@@ -2177,7 +2215,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>131</v>
       </c>
@@ -2191,7 +2229,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>124</v>
       </c>
@@ -2205,7 +2243,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>119</v>
       </c>
@@ -2219,7 +2257,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>115</v>
       </c>
@@ -2233,7 +2271,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>125</v>
       </c>
@@ -2247,7 +2285,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>114</v>
       </c>
@@ -2261,7 +2299,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>123</v>
       </c>
@@ -2275,7 +2313,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>120</v>
       </c>
@@ -2289,7 +2327,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>113</v>
       </c>
@@ -2303,7 +2341,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>132</v>
       </c>
@@ -2317,7 +2355,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>99</v>
       </c>
@@ -2331,7 +2369,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>98</v>
       </c>
@@ -2345,7 +2383,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>90</v>
       </c>
@@ -2359,7 +2397,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>91</v>
       </c>
@@ -2373,7 +2411,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>86</v>
       </c>
@@ -2387,7 +2425,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>93</v>
       </c>
@@ -2401,7 +2439,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>88</v>
       </c>
@@ -2415,7 +2453,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>87</v>
       </c>
@@ -2429,7 +2467,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>86</v>
       </c>
@@ -2443,7 +2481,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>91</v>
       </c>
@@ -2457,7 +2495,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>92</v>
       </c>
@@ -2471,7 +2509,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>110</v>
       </c>
@@ -2485,7 +2523,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>110</v>
       </c>
@@ -2499,7 +2537,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>102</v>
       </c>
@@ -2513,7 +2551,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>100</v>
       </c>
@@ -2527,7 +2565,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>92</v>
       </c>
@@ -2541,7 +2579,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>114</v>
       </c>
@@ -2555,7 +2593,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>113</v>
       </c>
@@ -2569,7 +2607,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>106</v>
       </c>
@@ -2583,7 +2621,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>78</v>
       </c>
@@ -2597,7 +2635,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>80</v>
       </c>
@@ -2611,7 +2649,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>77</v>
       </c>
@@ -2625,7 +2663,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>82</v>
       </c>
@@ -2639,7 +2677,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>77</v>
       </c>
@@ -2653,7 +2691,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>78</v>
       </c>
@@ -2667,7 +2705,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>87</v>
       </c>
@@ -2681,7 +2719,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>88</v>
       </c>
@@ -2695,7 +2733,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>83</v>
       </c>
@@ -2709,7 +2747,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>76</v>
       </c>
@@ -2723,7 +2761,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>80</v>
       </c>
@@ -2737,7 +2775,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>73</v>
       </c>
@@ -2751,7 +2789,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>75</v>
       </c>
@@ -2765,7 +2803,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>74</v>
       </c>
@@ -2779,7 +2817,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>69</v>
       </c>
@@ -2793,7 +2831,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>73</v>
       </c>
@@ -2807,7 +2845,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>89</v>
       </c>
@@ -2821,7 +2859,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>91</v>
       </c>
@@ -2835,7 +2873,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>86</v>
       </c>
@@ -2849,7 +2887,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>84</v>
       </c>
@@ -2863,7 +2901,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>102</v>
       </c>
@@ -2877,7 +2915,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>93</v>
       </c>
@@ -2891,7 +2929,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>77</v>
       </c>
@@ -2905,7 +2943,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>99</v>
       </c>
@@ -2919,7 +2957,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>97</v>
       </c>
@@ -2933,7 +2971,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>95</v>
       </c>
@@ -2947,7 +2985,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>88</v>
       </c>
@@ -2961,7 +2999,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>80</v>
       </c>
@@ -2975,7 +3013,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>78</v>
       </c>
@@ -2989,7 +3027,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>75</v>
       </c>
@@ -3003,7 +3041,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>68</v>
       </c>
@@ -3017,7 +3055,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>68</v>
       </c>
@@ -3031,7 +3069,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>66</v>
       </c>
@@ -3045,7 +3083,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>65</v>
       </c>
@@ -3059,7 +3097,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>73</v>
       </c>
@@ -3073,7 +3111,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>77</v>
       </c>
@@ -3087,7 +3125,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>70</v>
       </c>
@@ -3101,7 +3139,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>66</v>
       </c>
@@ -3115,7 +3153,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>75</v>
       </c>
@@ -3129,7 +3167,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>74</v>
       </c>
@@ -3143,7 +3181,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>129</v>
       </c>
@@ -3157,7 +3195,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>128</v>
       </c>
@@ -3171,7 +3209,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>115</v>
       </c>
@@ -3185,7 +3223,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>117</v>
       </c>
@@ -3199,7 +3237,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>142</v>
       </c>
@@ -3213,7 +3251,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>138</v>
       </c>
@@ -3227,7 +3265,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>137</v>
       </c>
@@ -3241,7 +3279,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>130</v>
       </c>
@@ -3255,7 +3293,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>124</v>
       </c>
@@ -3269,7 +3307,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>130</v>
       </c>
@@ -3283,7 +3321,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>129</v>
       </c>
@@ -3297,7 +3335,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>121</v>
       </c>
@@ -3311,7 +3349,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>115</v>
       </c>
@@ -3325,7 +3363,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>117</v>
       </c>
@@ -3339,7 +3377,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>123</v>
       </c>
@@ -3353,7 +3391,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>118</v>
       </c>
@@ -3367,7 +3405,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>124</v>
       </c>
@@ -3381,7 +3419,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>128</v>
       </c>
@@ -3395,7 +3433,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>122</v>
       </c>
@@ -3409,7 +3447,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>125</v>
       </c>
@@ -3423,7 +3461,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>118</v>
       </c>
@@ -3437,7 +3475,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>125</v>
       </c>
@@ -3451,7 +3489,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>124</v>
       </c>
@@ -3465,7 +3503,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>121</v>
       </c>
@@ -3479,7 +3517,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>149</v>
       </c>
@@ -3493,7 +3531,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>147</v>
       </c>
@@ -3507,7 +3545,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>151</v>
       </c>
@@ -3521,7 +3559,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>142</v>
       </c>
@@ -3535,7 +3573,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>132</v>
       </c>
@@ -3549,7 +3587,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>132</v>
       </c>
@@ -3563,7 +3601,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>141</v>
       </c>
@@ -3577,7 +3615,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>140</v>
       </c>
@@ -3591,7 +3629,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>133</v>
       </c>
@@ -3605,7 +3643,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>139</v>
       </c>
@@ -3619,7 +3657,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>148</v>
       </c>
@@ -3633,7 +3671,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>138</v>
       </c>
@@ -3647,7 +3685,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>127</v>
       </c>
@@ -3661,7 +3699,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>135</v>
       </c>
@@ -3675,7 +3713,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>133</v>
       </c>
@@ -3689,7 +3727,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>141</v>
       </c>
@@ -3703,7 +3741,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>142</v>
       </c>
@@ -3717,7 +3755,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>129</v>
       </c>
@@ -3731,7 +3769,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>126</v>
       </c>
@@ -3745,7 +3783,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>130</v>
       </c>
@@ -3759,7 +3797,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>134</v>
       </c>
@@ -3773,7 +3811,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>136</v>
       </c>
@@ -3787,7 +3825,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>138</v>
       </c>
@@ -3801,7 +3839,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>117</v>
       </c>
@@ -3815,7 +3853,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>118</v>
       </c>
@@ -3829,7 +3867,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>104</v>
       </c>
@@ -3843,7 +3881,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>148</v>
       </c>
@@ -3857,7 +3895,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>151</v>
       </c>
@@ -3871,7 +3909,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>144</v>
       </c>
@@ -3885,7 +3923,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>157</v>
       </c>
@@ -3899,7 +3937,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>147</v>
       </c>
@@ -3913,7 +3951,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>152</v>
       </c>
@@ -3927,7 +3965,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>154</v>
       </c>
@@ -3941,7 +3979,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>142</v>
       </c>
@@ -3955,7 +3993,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>129</v>
       </c>
@@ -3969,7 +4007,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>135</v>
       </c>
@@ -3983,7 +4021,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>130</v>
       </c>
@@ -3997,7 +4035,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>130</v>
       </c>
@@ -4011,7 +4049,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>120</v>
       </c>
@@ -4025,7 +4063,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>105</v>
       </c>
@@ -4039,7 +4077,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>111</v>
       </c>
@@ -4053,7 +4091,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>114</v>
       </c>
@@ -4067,7 +4105,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>116</v>
       </c>
@@ -4081,7 +4119,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>131</v>
       </c>
@@ -4095,7 +4133,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>105</v>
       </c>
@@ -4109,7 +4147,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>109</v>
       </c>
@@ -4123,7 +4161,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>101</v>
       </c>
@@ -4137,7 +4175,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>94</v>
       </c>
@@ -4151,7 +4189,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>92</v>
       </c>
@@ -4165,7 +4203,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>92</v>
       </c>
@@ -4179,7 +4217,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>94</v>
       </c>
@@ -4193,7 +4231,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>96</v>
       </c>
@@ -4207,7 +4245,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>95</v>
       </c>
@@ -4221,7 +4259,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>93</v>
       </c>
@@ -4235,7 +4273,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>83</v>
       </c>
@@ -4249,7 +4287,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>84</v>
       </c>
@@ -4263,7 +4301,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>88</v>
       </c>
@@ -4277,7 +4315,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>90</v>
       </c>
@@ -4291,7 +4329,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>88</v>
       </c>
@@ -4305,7 +4343,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>85</v>
       </c>
@@ -4319,7 +4357,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>76</v>
       </c>
@@ -4333,7 +4371,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>89</v>
       </c>
@@ -4347,7 +4385,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>76</v>
       </c>
@@ -4361,7 +4399,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>81</v>
       </c>
@@ -4375,7 +4413,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>83</v>
       </c>
@@ -4389,7 +4427,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>79</v>
       </c>
@@ -4403,7 +4441,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>72</v>
       </c>
@@ -4417,7 +4455,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>76</v>
       </c>
@@ -4431,7 +4469,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>81</v>
       </c>
@@ -4445,7 +4483,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>85</v>
       </c>
@@ -4459,7 +4497,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>80</v>
       </c>
@@ -4473,7 +4511,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>140</v>
       </c>
@@ -4487,7 +4525,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>122</v>
       </c>
@@ -4501,7 +4539,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>141</v>
       </c>
@@ -4515,7 +4553,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>129</v>
       </c>
@@ -4529,7 +4567,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>124</v>
       </c>
@@ -4543,7 +4581,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>128</v>
       </c>
@@ -4557,7 +4595,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>121</v>
       </c>
@@ -4571,7 +4609,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>120</v>
       </c>
@@ -4585,7 +4623,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>114</v>
       </c>
@@ -4599,7 +4637,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>117</v>
       </c>
@@ -4613,7 +4651,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>125</v>
       </c>
@@ -4627,7 +4665,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>104</v>
       </c>
@@ -4641,7 +4679,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>115</v>
       </c>
@@ -4655,7 +4693,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>115</v>
       </c>
@@ -4669,7 +4707,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>115</v>
       </c>
@@ -4683,7 +4721,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>110</v>
       </c>
@@ -4697,7 +4735,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>113</v>
       </c>
@@ -4711,7 +4749,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>113</v>
       </c>
@@ -4725,7 +4763,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>102</v>
       </c>
@@ -4739,7 +4777,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>103</v>
       </c>
@@ -4753,7 +4791,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>102</v>
       </c>
@@ -4767,7 +4805,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>126</v>
       </c>
@@ -4781,7 +4819,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>115</v>
       </c>
@@ -4795,7 +4833,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>112</v>
       </c>
@@ -4809,7 +4847,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>129</v>
       </c>
@@ -4823,7 +4861,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>126</v>
       </c>
@@ -4837,7 +4875,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>135</v>
       </c>
@@ -4851,7 +4889,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>133</v>
       </c>
@@ -4865,7 +4903,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>136</v>
       </c>
@@ -4879,7 +4917,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>129</v>
       </c>
@@ -4893,7 +4931,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>130</v>
       </c>
@@ -4907,7 +4945,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>112</v>
       </c>
@@ -4921,7 +4959,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>119</v>
       </c>
@@ -4935,7 +4973,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>125</v>
       </c>
@@ -4949,7 +4987,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>114</v>
       </c>
@@ -4963,7 +5001,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>113</v>
       </c>
@@ -4977,7 +5015,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>127</v>
       </c>
@@ -4991,7 +5029,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>105</v>
       </c>
@@ -5005,7 +5043,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>107</v>
       </c>
@@ -5019,7 +5057,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>113</v>
       </c>
@@ -5033,7 +5071,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>112</v>
       </c>
@@ -5047,7 +5085,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>110</v>
       </c>
@@ -5061,7 +5099,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>110</v>
       </c>
@@ -5075,7 +5113,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>108</v>
       </c>
@@ -5089,7 +5127,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>106</v>
       </c>
@@ -5103,7 +5141,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>101</v>
       </c>
@@ -5117,7 +5155,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>112</v>
       </c>
@@ -5131,7 +5169,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>114</v>
       </c>
@@ -5145,7 +5183,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>68</v>
       </c>
@@ -5159,7 +5197,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>66</v>
       </c>
@@ -5173,7 +5211,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>67</v>
       </c>
@@ -5187,7 +5225,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>63</v>
       </c>
@@ -5201,7 +5239,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>65</v>
       </c>
@@ -5215,7 +5253,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>70</v>
       </c>
@@ -5229,7 +5267,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>66</v>
       </c>
@@ -5243,7 +5281,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>61</v>
       </c>
@@ -5257,7 +5295,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>60</v>
       </c>
@@ -5271,7 +5309,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>68</v>
       </c>
@@ -5285,7 +5323,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>60</v>
       </c>
@@ -5299,7 +5337,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>53</v>
       </c>
@@ -5313,7 +5351,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>64</v>
       </c>
@@ -5327,7 +5365,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>66</v>
       </c>
@@ -5341,7 +5379,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>59</v>
       </c>
@@ -5355,7 +5393,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>65</v>
       </c>
@@ -5369,7 +5407,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>55</v>
       </c>
@@ -5383,7 +5421,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>69</v>
       </c>
@@ -5397,7 +5435,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>67</v>
       </c>
@@ -5411,7 +5449,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>69</v>
       </c>
@@ -5425,7 +5463,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>63</v>
       </c>
@@ -5439,7 +5477,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>65</v>
       </c>
@@ -5453,7 +5491,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>70</v>
       </c>
@@ -5467,7 +5505,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>65</v>
       </c>
@@ -5481,7 +5519,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>104</v>
       </c>
@@ -5495,7 +5533,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>121</v>
       </c>
@@ -5509,7 +5547,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>108</v>
       </c>
@@ -5523,7 +5561,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>105</v>
       </c>
@@ -5537,7 +5575,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>106</v>
       </c>
@@ -5551,7 +5589,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>115</v>
       </c>
@@ -5565,7 +5603,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>108</v>
       </c>
@@ -5579,7 +5617,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>104</v>
       </c>
@@ -5593,7 +5631,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>111</v>
       </c>
@@ -5607,7 +5645,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>99</v>
       </c>
@@ -5621,7 +5659,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>100</v>
       </c>
@@ -5635,7 +5673,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>108</v>
       </c>
@@ -5649,7 +5687,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>99</v>
       </c>
@@ -5663,7 +5701,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>101</v>
       </c>
@@ -5677,7 +5715,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>99</v>
       </c>
@@ -5691,7 +5729,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>91</v>
       </c>
@@ -5705,7 +5743,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>90</v>
       </c>
@@ -5719,7 +5757,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>90</v>
       </c>
@@ -5733,7 +5771,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>94</v>
       </c>
@@ -5747,7 +5785,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>91</v>
       </c>
@@ -5761,7 +5799,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>95</v>
       </c>
@@ -5775,7 +5813,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>95</v>
       </c>
@@ -5789,7 +5827,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>89</v>
       </c>
@@ -5803,7 +5841,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>90</v>
       </c>
@@ -5817,7 +5855,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>124</v>
       </c>
@@ -5831,7 +5869,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>110</v>
       </c>
@@ -5845,7 +5883,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>110</v>
       </c>
@@ -5859,7 +5897,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>103</v>
       </c>
@@ -5873,7 +5911,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>110</v>
       </c>
@@ -5887,7 +5925,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>107</v>
       </c>
@@ -5901,7 +5939,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>117</v>
       </c>
@@ -5915,7 +5953,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>110</v>
       </c>
@@ -5929,7 +5967,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>112</v>
       </c>
@@ -5943,7 +5981,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>117</v>
       </c>
@@ -5957,7 +5995,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>108</v>
       </c>
@@ -5971,7 +6009,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>109</v>
       </c>
@@ -5985,7 +6023,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>101</v>
       </c>
@@ -5999,7 +6037,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>110</v>
       </c>
@@ -6013,7 +6051,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>92</v>
       </c>
@@ -6027,7 +6065,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>95</v>
       </c>
@@ -6041,7 +6079,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>91</v>
       </c>
@@ -6055,7 +6093,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>95</v>
       </c>
@@ -6069,7 +6107,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>92</v>
       </c>
@@ -6083,7 +6121,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>95</v>
       </c>
@@ -6097,7 +6135,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>108</v>
       </c>
@@ -6111,7 +6149,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>110</v>
       </c>
@@ -6125,7 +6163,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>102</v>
       </c>
@@ -6139,7 +6177,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>100</v>
       </c>
@@ -6150,7 +6188,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>118</v>
       </c>
@@ -6161,7 +6199,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>112</v>
       </c>
@@ -6172,7 +6210,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>117</v>
       </c>
@@ -6183,7 +6221,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>107</v>
       </c>
@@ -6194,7 +6232,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>110</v>
       </c>
@@ -6205,7 +6243,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>109</v>
       </c>
@@ -6216,7 +6254,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>102</v>
       </c>
@@ -6227,7 +6265,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>105</v>
       </c>
@@ -6238,7 +6276,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>99</v>
       </c>
@@ -6249,7 +6287,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>104</v>
       </c>
@@ -6260,7 +6298,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>91</v>
       </c>
@@ -6271,7 +6309,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>104</v>
       </c>
@@ -6282,7 +6320,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>91</v>
       </c>
@@ -6293,7 +6331,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>92</v>
       </c>
@@ -6304,7 +6342,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>94</v>
       </c>
@@ -6315,7 +6353,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>94</v>
       </c>
@@ -6326,7 +6364,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>105</v>
       </c>
@@ -6337,7 +6375,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>102</v>
       </c>
@@ -6348,7 +6386,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>91</v>
       </c>
@@ -6359,7 +6397,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>98</v>
       </c>
@@ -6370,7 +6408,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>93</v>
       </c>
@@ -6381,7 +6419,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>96</v>
       </c>
@@ -6392,7 +6430,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>101</v>
       </c>
@@ -6403,7 +6441,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>94</v>
       </c>
@@ -6414,7 +6452,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>83</v>
       </c>
@@ -6425,7 +6463,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>80</v>
       </c>
@@ -6436,7 +6474,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>82</v>
       </c>
@@ -6447,7 +6485,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>73</v>
       </c>
@@ -6458,7 +6496,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>76</v>
       </c>
@@ -6469,7 +6507,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>71</v>
       </c>
@@ -6480,7 +6518,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>73</v>
       </c>
@@ -6491,7 +6529,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>71</v>
       </c>
@@ -6502,7 +6540,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>75</v>
       </c>
@@ -6513,7 +6551,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>83</v>
       </c>
@@ -6524,7 +6562,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>92</v>
       </c>
@@ -6532,7 +6570,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>86</v>
       </c>
@@ -6540,7 +6578,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>92</v>
       </c>
@@ -6548,7 +6586,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>88</v>
       </c>
@@ -6556,7 +6594,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>79</v>
       </c>
@@ -6564,7 +6602,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>80</v>
       </c>
@@ -6572,7 +6610,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>77</v>
       </c>
@@ -6580,7 +6618,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>77</v>
       </c>
@@ -6588,7 +6626,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>77</v>
       </c>
@@ -6596,7 +6634,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>75</v>
       </c>
@@ -6604,7 +6642,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>81</v>
       </c>
@@ -6612,7 +6650,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>78</v>
       </c>
@@ -6620,7 +6658,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>79</v>
       </c>
@@ -6628,7 +6666,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>80</v>
       </c>
@@ -6636,7 +6674,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>95</v>
       </c>
@@ -6644,7 +6682,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>79</v>
       </c>
@@ -6652,7 +6690,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>87</v>
       </c>
@@ -6660,7 +6698,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>80</v>
       </c>
@@ -6668,7 +6706,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>81</v>
       </c>
@@ -6676,7 +6714,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>84</v>
       </c>
@@ -6684,7 +6722,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>73</v>
       </c>
@@ -6692,7 +6730,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>84</v>
       </c>
@@ -6700,7 +6738,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>84</v>
       </c>
@@ -6708,7 +6746,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>92</v>
       </c>
@@ -6716,7 +6754,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>84</v>
       </c>
@@ -6724,7 +6762,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>89</v>
       </c>
@@ -6732,7 +6770,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>81</v>
       </c>
@@ -6740,7 +6778,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>73</v>
       </c>
@@ -6748,7 +6786,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>62</v>
       </c>
@@ -6756,7 +6794,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>79</v>
       </c>
@@ -6764,7 +6802,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>76</v>
       </c>
@@ -6772,7 +6810,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>76</v>
       </c>
@@ -6780,7 +6818,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>77</v>
       </c>
@@ -6788,7 +6826,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>71</v>
       </c>
@@ -6796,7 +6834,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>81</v>
       </c>
@@ -6804,7 +6842,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>79</v>
       </c>
@@ -6812,7 +6850,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>78</v>
       </c>
@@ -6820,7 +6858,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>80</v>
       </c>
@@ -6828,7 +6866,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>47</v>
       </c>
@@ -6836,7 +6874,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>47</v>
       </c>
@@ -6844,7 +6882,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>52</v>
       </c>
@@ -6852,7 +6890,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>45</v>
       </c>
@@ -6860,7 +6898,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>46</v>
       </c>
@@ -6868,7 +6906,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>59</v>
       </c>
@@ -6876,7 +6914,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>72</v>
       </c>
@@ -6884,7 +6922,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>54</v>
       </c>
@@ -6892,7 +6930,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>61</v>
       </c>
@@ -6900,7 +6938,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>53</v>
       </c>
@@ -6908,7 +6946,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>49</v>
       </c>
@@ -6916,7 +6954,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>53</v>
       </c>
@@ -6924,7 +6962,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>49</v>
       </c>
@@ -6932,7 +6970,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>54</v>
       </c>
@@ -6940,7 +6978,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>52</v>
       </c>
@@ -6948,7 +6986,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>45</v>
       </c>
@@ -6956,7 +6994,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>49</v>
       </c>
@@ -6964,7 +7002,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>50</v>
       </c>
@@ -6972,7 +7010,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>50</v>
       </c>
@@ -6980,7 +7018,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>47</v>
       </c>
@@ -6988,7 +7026,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>48</v>
       </c>
@@ -6996,7 +7034,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>49</v>
       </c>
@@ -7004,7 +7042,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>49</v>
       </c>
@@ -7012,7 +7050,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>49</v>
       </c>
@@ -7020,7 +7058,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>89</v>
       </c>
@@ -7028,7 +7066,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>82</v>
       </c>
@@ -7036,7 +7074,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>80</v>
       </c>
@@ -7044,7 +7082,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>86</v>
       </c>
@@ -7052,7 +7090,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>79</v>
       </c>
@@ -7060,7 +7098,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>83</v>
       </c>
@@ -7068,7 +7106,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>83</v>
       </c>
@@ -7076,7 +7114,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>89</v>
       </c>
@@ -7084,7 +7122,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>83</v>
       </c>
@@ -7092,7 +7130,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>80</v>
       </c>
@@ -7100,7 +7138,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>74</v>
       </c>
@@ -7108,7 +7146,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>65</v>
       </c>
@@ -7116,7 +7154,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>66</v>
       </c>
@@ -7124,7 +7162,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>66</v>
       </c>
@@ -7132,7 +7170,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>62</v>
       </c>
@@ -7140,7 +7178,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>60</v>
       </c>
@@ -7148,7 +7186,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>54</v>
       </c>
@@ -7156,7 +7194,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>67</v>
       </c>
@@ -7164,7 +7202,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>60</v>
       </c>
@@ -7172,7 +7210,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>59</v>
       </c>
@@ -7180,7 +7218,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>58</v>
       </c>
@@ -7188,7 +7226,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>69</v>
       </c>
@@ -7196,7 +7234,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>60</v>
       </c>
@@ -7204,7 +7242,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>61</v>
       </c>
@@ -7212,7 +7250,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>60</v>
       </c>
@@ -7220,7 +7258,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>76</v>
       </c>
@@ -7228,7 +7266,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>67</v>
       </c>
@@ -7236,7 +7274,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>71</v>
       </c>
@@ -7244,7 +7282,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>70</v>
       </c>
@@ -7252,7 +7290,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>76</v>
       </c>
@@ -7260,7 +7298,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>71</v>
       </c>
@@ -7268,7 +7306,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>77</v>
       </c>
@@ -7276,7 +7314,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>68</v>
       </c>
@@ -7284,7 +7322,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>75</v>
       </c>
@@ -7292,7 +7330,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>73</v>
       </c>
@@ -7300,7 +7338,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>73</v>
       </c>
@@ -7308,7 +7346,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>69</v>
       </c>
@@ -7316,7 +7354,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>76</v>
       </c>
@@ -7324,7 +7362,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>70</v>
       </c>
@@ -7332,7 +7370,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>66</v>
       </c>
@@ -7340,7 +7378,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>71</v>
       </c>
@@ -7348,7 +7386,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>65</v>
       </c>
@@ -7356,7 +7394,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>71</v>
       </c>
@@ -7364,7 +7402,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>72</v>
       </c>
@@ -7372,7 +7410,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>66</v>
       </c>
@@ -7380,7 +7418,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>70</v>
       </c>
@@ -7388,7 +7426,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>65</v>
       </c>
@@ -7396,7 +7434,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>67</v>
       </c>
@@ -7404,7 +7442,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>64</v>
       </c>
@@ -7412,7 +7450,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>96</v>
       </c>
@@ -7420,7 +7458,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>97</v>
       </c>
@@ -7428,7 +7466,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>89</v>
       </c>
@@ -7436,7 +7474,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>90</v>
       </c>
@@ -7444,7 +7482,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>99</v>
       </c>
@@ -7452,7 +7490,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>78</v>
       </c>
@@ -7460,7 +7498,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>77</v>
       </c>
@@ -7468,7 +7506,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>88</v>
       </c>
@@ -7476,7 +7514,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>82</v>
       </c>
@@ -7484,7 +7522,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>76</v>
       </c>
@@ -7492,7 +7530,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>81</v>
       </c>
@@ -7500,7 +7538,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>79</v>
       </c>
@@ -7508,7 +7546,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>79</v>
       </c>
@@ -7516,7 +7554,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>73</v>
       </c>
@@ -7524,7 +7562,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>74</v>
       </c>
@@ -7532,7 +7570,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>75</v>
       </c>
@@ -7540,7 +7578,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>106</v>
       </c>
@@ -7548,7 +7586,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>95</v>
       </c>
@@ -7556,7 +7594,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>94</v>
       </c>
@@ -7564,7 +7602,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>94</v>
       </c>
@@ -7572,7 +7610,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>101</v>
       </c>
@@ -7580,7 +7618,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>105</v>
       </c>
@@ -7588,7 +7626,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>101</v>
       </c>
@@ -7596,7 +7634,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>105</v>
       </c>
@@ -7604,7 +7642,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>110</v>
       </c>
@@ -7612,7 +7650,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>95</v>
       </c>
@@ -7620,7 +7658,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>94</v>
       </c>
@@ -7628,7 +7666,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>93</v>
       </c>
@@ -7636,7 +7674,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>78</v>
       </c>
@@ -7644,7 +7682,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>69</v>
       </c>
@@ -7652,7 +7690,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>67</v>
       </c>
@@ -7660,7 +7698,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>73</v>
       </c>
@@ -7668,7 +7706,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>70</v>
       </c>
@@ -7676,7 +7714,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>71</v>
       </c>
@@ -7684,7 +7722,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>72</v>
       </c>
@@ -7692,7 +7730,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>71</v>
       </c>
@@ -7700,7 +7738,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>74</v>
       </c>
@@ -7708,7 +7746,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>74</v>
       </c>
@@ -7716,7 +7754,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>73</v>
       </c>
@@ -7724,7 +7762,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>70</v>
       </c>
@@ -7732,7 +7770,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>70</v>
       </c>
@@ -7740,7 +7778,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>93</v>
       </c>
@@ -7748,7 +7786,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>80</v>
       </c>
@@ -7756,7 +7794,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>71</v>
       </c>
@@ -7764,7 +7802,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>70</v>
       </c>
@@ -7772,7 +7810,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>75</v>
       </c>
@@ -7780,7 +7818,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>74</v>
       </c>
@@ -7788,7 +7826,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>71</v>
       </c>
@@ -7796,7 +7834,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>73</v>
       </c>
@@ -7804,7 +7842,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>74</v>
       </c>
@@ -7812,7 +7850,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>73</v>
       </c>
@@ -7820,7 +7858,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>71</v>
       </c>
@@ -7828,7 +7866,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>52</v>
       </c>
@@ -7836,7 +7874,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>54</v>
       </c>
@@ -7844,7 +7882,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>55</v>
       </c>
@@ -7852,7 +7890,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>56</v>
       </c>
@@ -7860,7 +7898,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>49</v>
       </c>
@@ -7868,7 +7906,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>56</v>
       </c>
@@ -7876,7 +7914,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>61</v>
       </c>
@@ -7884,7 +7922,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>59</v>
       </c>
@@ -7892,7 +7930,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>59</v>
       </c>
@@ -7900,7 +7938,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>60</v>
       </c>
@@ -7908,7 +7946,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>54</v>
       </c>
@@ -7916,7 +7954,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>56</v>
       </c>
@@ -7924,7 +7962,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>51</v>
       </c>
@@ -7932,7 +7970,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>60</v>
       </c>
@@ -7940,7 +7978,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>65</v>
       </c>
@@ -7948,7 +7986,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>65</v>
       </c>
@@ -7956,7 +7994,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>57</v>
       </c>
@@ -7964,7 +8002,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>55</v>
       </c>
@@ -7972,7 +8010,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>61</v>
       </c>
@@ -7980,7 +8018,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>58</v>
       </c>
@@ -7988,7 +8026,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>60</v>
       </c>
@@ -7996,7 +8034,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>67</v>
       </c>
@@ -8004,7 +8042,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>59</v>
       </c>
@@ -8012,7 +8050,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>63</v>
       </c>
@@ -8020,7 +8058,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>62</v>
       </c>
@@ -8028,7 +8066,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>63</v>
       </c>
@@ -8036,7 +8074,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A611">
         <v>74</v>
       </c>
@@ -8044,7 +8082,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>67</v>
       </c>
@@ -8052,7 +8090,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>67</v>
       </c>
@@ -8060,7 +8098,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>67</v>
       </c>
@@ -8068,7 +8106,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>68</v>
       </c>
@@ -8076,7 +8114,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>71</v>
       </c>
@@ -8084,7 +8122,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>60</v>
       </c>
@@ -8092,7 +8130,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>65</v>
       </c>
@@ -8100,7 +8138,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>62</v>
       </c>
@@ -8108,7 +8146,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A620">
         <v>59</v>
       </c>
@@ -8116,7 +8154,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>65</v>
       </c>
@@ -8124,7 +8162,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A622">
         <v>59</v>
       </c>
@@ -8132,7 +8170,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>73</v>
       </c>
@@ -8140,7 +8178,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>63</v>
       </c>
@@ -8148,7 +8186,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>75</v>
       </c>
@@ -8156,7 +8194,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>69</v>
       </c>
@@ -8164,7 +8202,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>71</v>
       </c>
@@ -8172,7 +8210,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>73</v>
       </c>
@@ -8180,7 +8218,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>65</v>
       </c>
@@ -8188,7 +8226,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>78</v>
       </c>
@@ -8196,7 +8234,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>79</v>
       </c>
@@ -8204,7 +8242,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>80</v>
       </c>
@@ -8212,7 +8250,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A633">
         <v>76</v>
       </c>
@@ -8220,7 +8258,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>76</v>
       </c>
@@ -8228,7 +8266,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>71</v>
       </c>
@@ -8236,7 +8274,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>75</v>
       </c>
@@ -8244,7 +8282,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A637">
         <v>85</v>
       </c>
@@ -8252,7 +8290,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>74</v>
       </c>
@@ -8260,7 +8298,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>73</v>
       </c>
@@ -8268,7 +8306,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>85</v>
       </c>
@@ -8276,7 +8314,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A641">
         <v>87</v>
       </c>
@@ -8284,7 +8322,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A642">
         <v>80</v>
       </c>
@@ -8292,7 +8330,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A643">
         <v>80</v>
       </c>
@@ -8300,7 +8338,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A644">
         <v>87</v>
       </c>
@@ -8308,7 +8346,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A645">
         <v>92</v>
       </c>
@@ -8316,7 +8354,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A646">
         <v>89</v>
       </c>
@@ -8324,7 +8362,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A647">
         <v>72</v>
       </c>
@@ -8332,7 +8370,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A648">
         <v>68</v>
       </c>
@@ -8340,7 +8378,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A649">
         <v>80</v>
       </c>
@@ -8348,7 +8386,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A650">
         <v>73</v>
       </c>
@@ -8356,7 +8394,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A651">
         <v>70</v>
       </c>
@@ -8364,7 +8402,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A652">
         <v>68</v>
       </c>
@@ -8372,7 +8410,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A653">
         <v>77</v>
       </c>
@@ -8380,7 +8418,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A654">
         <v>87</v>
       </c>
@@ -8388,7 +8426,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A655">
         <v>84</v>
       </c>
@@ -8396,7 +8434,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A656">
         <v>86</v>
       </c>
@@ -8404,7 +8442,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A657">
         <v>85</v>
       </c>
@@ -8412,7 +8450,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A658">
         <v>81</v>
       </c>
@@ -8420,7 +8458,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A659">
         <v>79</v>
       </c>
@@ -8428,7 +8466,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A660">
         <v>78</v>
       </c>
@@ -8436,7 +8474,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A661">
         <v>74</v>
       </c>
@@ -8444,7 +8482,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A662">
         <v>66</v>
       </c>
@@ -8452,7 +8490,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A663">
         <v>70</v>
       </c>
@@ -8460,7 +8498,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A664">
         <v>75</v>
       </c>
@@ -8468,7 +8506,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A665">
         <v>79</v>
       </c>
@@ -8476,7 +8514,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A666">
         <v>76</v>
       </c>
@@ -8484,7 +8522,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A667">
         <v>80</v>
       </c>
@@ -8492,7 +8530,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A668">
         <v>82</v>
       </c>
@@ -8500,7 +8538,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A669">
         <v>84</v>
       </c>
@@ -8508,7 +8546,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A670">
         <v>80</v>
       </c>
@@ -8516,7 +8554,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A671">
         <v>82</v>
       </c>
@@ -8524,7 +8562,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A672">
         <v>84</v>
       </c>
@@ -8532,7 +8570,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A673">
         <v>74</v>
       </c>
@@ -8540,7 +8578,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A674">
         <v>85</v>
       </c>
@@ -8548,7 +8586,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A675">
         <v>93</v>
       </c>
@@ -8556,7 +8594,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A676">
         <v>89</v>
       </c>
@@ -8564,7 +8602,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A677">
         <v>85</v>
       </c>
@@ -8572,7 +8610,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A678">
         <v>88</v>
       </c>
@@ -8580,7 +8618,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A679">
         <v>84</v>
       </c>
@@ -8588,7 +8626,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A680">
         <v>84</v>
       </c>
@@ -8596,7 +8634,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A681">
         <v>90</v>
       </c>
@@ -8604,7 +8642,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A682">
         <v>92</v>
       </c>
@@ -8612,7 +8650,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A683">
         <v>96</v>
       </c>
@@ -8620,7 +8658,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A684">
         <v>97</v>
       </c>
@@ -8628,7 +8666,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A685">
         <v>98</v>
       </c>
@@ -8636,7 +8674,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A686">
         <v>88</v>
       </c>
@@ -8644,7 +8682,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A687">
         <v>89</v>
       </c>
@@ -8652,7 +8690,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A688">
         <v>60</v>
       </c>
@@ -8660,7 +8698,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A689">
         <v>61</v>
       </c>
@@ -8668,7 +8706,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A690">
         <v>61</v>
       </c>
@@ -8676,7 +8714,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A691">
         <v>59</v>
       </c>
@@ -8684,7 +8722,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A692">
         <v>59</v>
       </c>
@@ -8692,7 +8730,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A693">
         <v>63</v>
       </c>
@@ -8700,7 +8738,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A694">
         <v>61</v>
       </c>
@@ -8708,7 +8746,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A695">
         <v>59</v>
       </c>
@@ -8716,7 +8754,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A696">
         <v>64</v>
       </c>
@@ -8724,7 +8762,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A697">
         <v>60</v>
       </c>
@@ -8732,7 +8770,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A698">
         <v>102</v>
       </c>
@@ -8740,7 +8778,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A699">
         <v>93</v>
       </c>
@@ -8748,7 +8786,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A700">
         <v>106</v>
       </c>
@@ -8756,7 +8794,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A701">
         <v>104</v>
       </c>
@@ -8764,7 +8802,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A702">
         <v>100</v>
       </c>
@@ -8772,7 +8810,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A703">
         <v>98</v>
       </c>
@@ -8780,7 +8818,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A704">
         <v>97</v>
       </c>
@@ -8788,7 +8826,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A705">
         <v>100</v>
       </c>
@@ -8796,7 +8834,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A706">
         <v>92</v>
       </c>
@@ -8804,7 +8842,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A707">
         <v>101</v>
       </c>
@@ -8812,7 +8850,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A708">
         <v>103</v>
       </c>
@@ -8820,7 +8858,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A709">
         <v>98</v>
       </c>
@@ -8828,7 +8866,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A710">
         <v>85</v>
       </c>
@@ -8836,7 +8874,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A711">
         <v>98</v>
       </c>
@@ -8844,7 +8882,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A712">
         <v>100</v>
       </c>
@@ -8852,7 +8890,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A713">
         <v>95</v>
       </c>
@@ -8860,7 +8898,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A714">
         <v>95</v>
       </c>
@@ -8868,7 +8906,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A715">
         <v>101</v>
       </c>
@@ -8876,7 +8914,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A716">
         <v>99</v>
       </c>
@@ -8884,7 +8922,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A717">
         <v>90</v>
       </c>
@@ -8892,7 +8930,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A718">
         <v>101</v>
       </c>
@@ -8900,7 +8938,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A719">
         <v>90</v>
       </c>
@@ -8908,7 +8946,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A720">
         <v>100</v>
       </c>
@@ -8916,7 +8954,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A721">
         <v>103</v>
       </c>
@@ -8924,7 +8962,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A722">
         <v>105</v>
       </c>
@@ -8932,7 +8970,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A723">
         <v>102</v>
       </c>
@@ -8940,7 +8978,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A724">
         <v>105</v>
       </c>
@@ -8948,7 +8986,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A725">
         <v>111</v>
       </c>
@@ -8956,7 +8994,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A726">
         <v>86</v>
       </c>
@@ -8964,7 +9002,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A727">
         <v>91</v>
       </c>
@@ -8972,7 +9010,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A728">
         <v>88</v>
       </c>
@@ -8980,7 +9018,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A729">
         <v>76</v>
       </c>
@@ -8988,7 +9026,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A730">
         <v>74</v>
       </c>
@@ -8996,7 +9034,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A731">
         <v>79</v>
       </c>
@@ -9004,7 +9042,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A732">
         <v>80</v>
       </c>
@@ -9012,7 +9050,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A733">
         <v>90</v>
       </c>
@@ -9020,7 +9058,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A734">
         <v>94</v>
       </c>
@@ -9028,7 +9066,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A735">
         <v>83</v>
       </c>
@@ -9036,7 +9074,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A736">
         <v>91</v>
       </c>
@@ -9044,7 +9082,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A737">
         <v>89</v>
       </c>
@@ -9052,7 +9090,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A738">
         <v>103</v>
       </c>
@@ -9060,7 +9098,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A739">
         <v>116</v>
       </c>
@@ -9068,1107 +9106,1107 @@
         <v>113</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A740">
         <v>89</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A741">
         <v>100</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A742">
         <v>93</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A743">
         <v>79</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A744">
         <v>77</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A745">
         <v>86</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A746">
         <v>83</v>
       </c>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A747">
         <v>72</v>
       </c>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A748">
         <v>67</v>
       </c>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A749">
         <v>61</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A750">
         <v>65</v>
       </c>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A751">
         <v>61</v>
       </c>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A752">
         <v>55</v>
       </c>
     </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A753">
         <v>60</v>
       </c>
     </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A754">
         <v>62</v>
       </c>
     </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A755">
         <v>62</v>
       </c>
     </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A756">
         <v>64</v>
       </c>
     </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A757">
         <v>59</v>
       </c>
     </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A758">
         <v>50</v>
       </c>
     </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A759">
         <v>63</v>
       </c>
     </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A760">
         <v>53</v>
       </c>
     </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A761">
         <v>52</v>
       </c>
     </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A762">
         <v>65</v>
       </c>
     </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A763">
         <v>73</v>
       </c>
     </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A764">
         <v>74</v>
       </c>
     </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A765">
         <v>58</v>
       </c>
     </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A766">
         <v>70</v>
       </c>
     </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A767">
         <v>84</v>
       </c>
     </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A768">
         <v>96</v>
       </c>
     </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A769">
         <v>90</v>
       </c>
     </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A770">
         <v>95</v>
       </c>
     </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A771">
         <v>92</v>
       </c>
     </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A772">
         <v>97</v>
       </c>
     </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A773">
         <v>96</v>
       </c>
     </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A774">
         <v>92</v>
       </c>
     </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A775">
         <v>91</v>
       </c>
     </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A776">
         <v>93</v>
       </c>
     </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A777">
         <v>95</v>
       </c>
     </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A778">
         <v>111</v>
       </c>
     </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A779">
         <v>109</v>
       </c>
     </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A780">
         <v>94</v>
       </c>
     </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A781">
         <v>91</v>
       </c>
     </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A782">
         <v>84</v>
       </c>
     </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A783">
         <v>88</v>
       </c>
     </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A784">
         <v>95</v>
       </c>
     </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A785">
         <v>96</v>
       </c>
     </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A786">
         <v>87</v>
       </c>
     </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A787">
         <v>94</v>
       </c>
     </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A788">
         <v>99</v>
       </c>
     </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A789">
         <v>99</v>
       </c>
     </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A790">
         <v>97</v>
       </c>
     </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A791">
         <v>102</v>
       </c>
     </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A792">
         <v>90</v>
       </c>
     </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A793">
         <v>92</v>
       </c>
     </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A794">
         <v>88</v>
       </c>
     </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A795">
         <v>89</v>
       </c>
     </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A796">
         <v>89</v>
       </c>
     </row>
-    <row r="797" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A797">
         <v>81</v>
       </c>
     </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A798">
         <v>80</v>
       </c>
     </row>
-    <row r="799" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A799">
         <v>74</v>
       </c>
     </row>
-    <row r="800" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A800">
         <v>65</v>
       </c>
     </row>
-    <row r="801" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A801">
         <v>71</v>
       </c>
     </row>
-    <row r="802" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A802">
         <v>68</v>
       </c>
     </row>
-    <row r="803" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A803">
         <v>67</v>
       </c>
     </row>
-    <row r="804" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A804">
         <v>66</v>
       </c>
     </row>
-    <row r="805" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A805">
         <v>70</v>
       </c>
     </row>
-    <row r="806" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A806">
         <v>69</v>
       </c>
     </row>
-    <row r="807" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A807">
         <v>76</v>
       </c>
     </row>
-    <row r="808" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A808">
         <v>73</v>
       </c>
     </row>
-    <row r="809" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A809">
         <v>64</v>
       </c>
     </row>
-    <row r="810" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A810">
         <v>66</v>
       </c>
     </row>
-    <row r="811" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A811">
         <v>62</v>
       </c>
     </row>
-    <row r="812" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A812">
         <v>65</v>
       </c>
     </row>
-    <row r="813" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A813">
         <v>63</v>
       </c>
     </row>
-    <row r="814" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A814">
         <v>64</v>
       </c>
     </row>
-    <row r="815" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A815">
         <v>53</v>
       </c>
     </row>
-    <row r="816" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A816">
         <v>57</v>
       </c>
     </row>
-    <row r="817" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A817">
         <v>82</v>
       </c>
     </row>
-    <row r="818" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A818">
         <v>75</v>
       </c>
     </row>
-    <row r="819" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A819">
         <v>81</v>
       </c>
     </row>
-    <row r="820" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A820">
         <v>53</v>
       </c>
     </row>
-    <row r="821" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A821">
         <v>65</v>
       </c>
     </row>
-    <row r="822" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A822">
         <v>69</v>
       </c>
     </row>
-    <row r="823" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A823">
         <v>60</v>
       </c>
     </row>
-    <row r="824" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A824">
         <v>57</v>
       </c>
     </row>
-    <row r="825" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A825">
         <v>55</v>
       </c>
     </row>
-    <row r="826" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A826">
         <v>64</v>
       </c>
     </row>
-    <row r="827" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A827">
         <v>71</v>
       </c>
     </row>
-    <row r="828" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A828">
         <v>74</v>
       </c>
     </row>
-    <row r="829" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A829">
         <v>70</v>
       </c>
     </row>
-    <row r="830" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A830">
         <v>54</v>
       </c>
     </row>
-    <row r="831" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A831">
         <v>69</v>
       </c>
     </row>
-    <row r="832" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A832">
         <v>65</v>
       </c>
     </row>
-    <row r="833" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A833">
         <v>61</v>
       </c>
     </row>
-    <row r="834" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A834">
         <v>61</v>
       </c>
     </row>
-    <row r="835" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A835">
         <v>66</v>
       </c>
     </row>
-    <row r="836" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A836">
         <v>68</v>
       </c>
     </row>
-    <row r="837" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A837">
         <v>66</v>
       </c>
     </row>
-    <row r="838" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A838">
         <v>69</v>
       </c>
     </row>
-    <row r="839" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A839">
         <v>72</v>
       </c>
     </row>
-    <row r="840" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A840">
         <v>75</v>
       </c>
     </row>
-    <row r="841" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A841">
         <v>108</v>
       </c>
     </row>
-    <row r="842" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A842">
         <v>101</v>
       </c>
     </row>
-    <row r="843" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A843">
         <v>108</v>
       </c>
     </row>
-    <row r="844" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A844">
         <v>96</v>
       </c>
     </row>
-    <row r="845" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A845">
         <v>98</v>
       </c>
     </row>
-    <row r="846" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A846">
         <v>92</v>
       </c>
     </row>
-    <row r="847" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A847">
         <v>107</v>
       </c>
     </row>
-    <row r="848" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A848">
         <v>89</v>
       </c>
     </row>
-    <row r="849" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A849">
         <v>103</v>
       </c>
     </row>
-    <row r="850" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A850">
         <v>96</v>
       </c>
     </row>
-    <row r="851" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A851">
         <v>106</v>
       </c>
     </row>
-    <row r="852" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A852">
         <v>108</v>
       </c>
     </row>
-    <row r="853" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A853">
         <v>110</v>
       </c>
     </row>
-    <row r="854" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A854">
         <v>92</v>
       </c>
     </row>
-    <row r="855" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A855">
         <v>90</v>
       </c>
     </row>
-    <row r="856" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A856">
         <v>103</v>
       </c>
     </row>
-    <row r="857" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A857">
         <v>104</v>
       </c>
     </row>
-    <row r="858" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A858">
         <v>94</v>
       </c>
     </row>
-    <row r="859" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A859">
         <v>102</v>
       </c>
     </row>
-    <row r="860" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A860">
         <v>105</v>
       </c>
     </row>
-    <row r="861" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A861">
         <v>101</v>
       </c>
     </row>
-    <row r="862" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A862">
         <v>106</v>
       </c>
     </row>
-    <row r="863" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A863">
         <v>113</v>
       </c>
     </row>
-    <row r="864" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A864">
         <v>103</v>
       </c>
     </row>
-    <row r="865" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A865">
         <v>88</v>
       </c>
     </row>
-    <row r="866" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A866">
         <v>94</v>
       </c>
     </row>
-    <row r="867" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A867">
         <v>89</v>
       </c>
     </row>
-    <row r="868" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A868">
         <v>88</v>
       </c>
     </row>
-    <row r="869" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A869">
         <v>96</v>
       </c>
     </row>
-    <row r="870" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A870">
         <v>100</v>
       </c>
     </row>
-    <row r="871" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A871">
         <v>91</v>
       </c>
     </row>
-    <row r="872" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A872">
         <v>95</v>
       </c>
     </row>
-    <row r="873" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A873">
         <v>101</v>
       </c>
     </row>
-    <row r="874" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A874">
         <v>90</v>
       </c>
     </row>
-    <row r="875" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A875">
         <v>95</v>
       </c>
     </row>
-    <row r="876" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A876">
         <v>88</v>
       </c>
     </row>
-    <row r="877" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A877">
         <v>89</v>
       </c>
     </row>
-    <row r="878" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A878">
         <v>80</v>
       </c>
     </row>
-    <row r="879" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A879">
         <v>86</v>
       </c>
     </row>
-    <row r="880" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A880">
         <v>99</v>
       </c>
     </row>
-    <row r="881" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A881">
         <v>88</v>
       </c>
     </row>
-    <row r="882" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A882">
         <v>93</v>
       </c>
     </row>
-    <row r="883" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A883">
         <v>101</v>
       </c>
     </row>
-    <row r="884" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A884">
         <v>94</v>
       </c>
     </row>
-    <row r="885" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A885">
         <v>86</v>
       </c>
     </row>
-    <row r="886" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A886">
         <v>91</v>
       </c>
     </row>
-    <row r="887" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A887">
         <v>89</v>
       </c>
     </row>
-    <row r="888" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A888">
         <v>101</v>
       </c>
     </row>
-    <row r="889" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A889">
         <v>91</v>
       </c>
     </row>
-    <row r="890" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A890">
         <v>69</v>
       </c>
     </row>
-    <row r="891" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A891">
         <v>75</v>
       </c>
     </row>
-    <row r="892" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A892">
         <v>85</v>
       </c>
     </row>
-    <row r="893" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A893">
         <v>70</v>
       </c>
     </row>
-    <row r="894" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A894">
         <v>67</v>
       </c>
     </row>
-    <row r="895" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A895">
         <v>87</v>
       </c>
     </row>
-    <row r="896" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A896">
         <v>78</v>
       </c>
     </row>
-    <row r="897" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A897">
         <v>75</v>
       </c>
     </row>
-    <row r="898" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A898">
         <v>80</v>
       </c>
     </row>
-    <row r="899" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="899" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A899">
         <v>82</v>
       </c>
     </row>
-    <row r="900" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="900" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A900">
         <v>77</v>
       </c>
     </row>
-    <row r="901" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="901" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A901">
         <v>76</v>
       </c>
     </row>
-    <row r="902" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A902">
         <v>75</v>
       </c>
     </row>
-    <row r="903" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="903" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A903">
         <v>90</v>
       </c>
     </row>
-    <row r="904" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="904" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A904">
         <v>88</v>
       </c>
     </row>
-    <row r="905" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="905" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A905">
         <v>82</v>
       </c>
     </row>
-    <row r="906" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="906" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A906">
         <v>84</v>
       </c>
     </row>
-    <row r="907" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="907" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A907">
         <v>76</v>
       </c>
     </row>
-    <row r="908" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="908" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A908">
         <v>80</v>
       </c>
     </row>
-    <row r="909" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="909" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A909">
         <v>85</v>
       </c>
     </row>
-    <row r="910" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="910" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A910">
         <v>84</v>
       </c>
     </row>
-    <row r="911" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="911" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A911">
         <v>79</v>
       </c>
     </row>
-    <row r="912" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="912" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A912">
         <v>82</v>
       </c>
     </row>
-    <row r="913" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A913">
         <v>75</v>
       </c>
     </row>
-    <row r="914" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="914" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A914">
         <v>73</v>
       </c>
     </row>
-    <row r="915" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="915" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A915">
         <v>69</v>
       </c>
     </row>
-    <row r="916" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="916" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A916">
         <v>69</v>
       </c>
     </row>
-    <row r="917" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="917" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A917">
         <v>68</v>
       </c>
     </row>
-    <row r="918" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="918" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A918">
         <v>67</v>
       </c>
     </row>
-    <row r="919" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="919" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A919">
         <v>70</v>
       </c>
     </row>
-    <row r="920" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="920" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A920">
         <v>71</v>
       </c>
     </row>
-    <row r="921" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="921" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A921">
         <v>72</v>
       </c>
     </row>
-    <row r="922" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="922" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A922">
         <v>72</v>
       </c>
     </row>
-    <row r="923" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="923" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A923">
         <v>73</v>
       </c>
     </row>
-    <row r="924" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="924" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A924">
         <v>69</v>
       </c>
     </row>
-    <row r="925" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="925" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A925">
         <v>72</v>
       </c>
     </row>
-    <row r="926" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="926" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A926">
         <v>72</v>
       </c>
     </row>
-    <row r="927" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="927" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A927">
         <v>70</v>
       </c>
     </row>
-    <row r="928" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="928" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A928">
         <v>70</v>
       </c>
     </row>
-    <row r="929" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="929" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A929">
         <v>63</v>
       </c>
     </row>
-    <row r="930" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="930" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A930">
         <v>70</v>
       </c>
     </row>
-    <row r="931" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="931" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A931">
         <v>73</v>
       </c>
     </row>
-    <row r="932" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="932" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A932">
         <v>70</v>
       </c>
     </row>
-    <row r="933" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="933" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A933">
         <v>69</v>
       </c>
     </row>
-    <row r="934" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="934" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A934">
         <v>73</v>
       </c>
     </row>
-    <row r="935" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="935" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A935">
         <v>74</v>
       </c>
     </row>
-    <row r="936" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="936" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A936">
         <v>77</v>
       </c>
     </row>
-    <row r="937" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="937" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A937">
         <v>71</v>
       </c>
     </row>
-    <row r="938" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="938" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A938">
         <v>66</v>
       </c>
     </row>
-    <row r="939" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="939" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A939">
         <v>66</v>
       </c>
     </row>
-    <row r="940" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="940" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A940">
         <v>68</v>
       </c>
     </row>
-    <row r="941" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="941" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A941">
         <v>69</v>
       </c>
     </row>
-    <row r="942" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="942" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A942">
         <v>80</v>
       </c>
     </row>
-    <row r="943" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="943" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A943">
         <v>78</v>
       </c>
     </row>
-    <row r="944" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="944" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A944">
         <v>65</v>
       </c>
     </row>
-    <row r="945" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="945" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A945">
         <v>67</v>
       </c>
     </row>
-    <row r="946" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="946" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A946">
         <v>60</v>
       </c>
     </row>
-    <row r="947" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="947" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A947">
         <v>79</v>
       </c>
     </row>
-    <row r="948" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="948" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A948">
         <v>78</v>
       </c>
     </row>
-    <row r="949" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="949" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A949">
         <v>80</v>
       </c>
     </row>
-    <row r="950" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="950" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A950">
         <v>79</v>
       </c>
     </row>
-    <row r="951" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="951" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A951">
         <v>71</v>
       </c>
     </row>
-    <row r="952" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="952" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A952">
         <v>75</v>
       </c>
     </row>
-    <row r="953" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="953" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A953">
         <v>65</v>
       </c>
     </row>
-    <row r="954" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="954" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A954">
         <v>75</v>
       </c>
     </row>
-    <row r="955" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="955" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A955">
         <v>69</v>
       </c>
     </row>
-    <row r="956" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="956" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A956">
         <v>70</v>
       </c>
     </row>
-    <row r="957" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="957" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A957">
         <v>73</v>
       </c>
     </row>
-    <row r="958" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="958" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A958">
         <v>66</v>
       </c>
     </row>
-    <row r="959" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="959" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A959">
         <v>78</v>
       </c>
     </row>
-    <row r="960" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="960" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A960">
         <v>72</v>
       </c>
